--- a/testing/d1b_b.xlsx
+++ b/testing/d1b_b.xlsx
@@ -2235,10 +2235,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="17">
-        <v>-0.83818679462135937</v>
+        <v>-2.0186232039417233</v>
       </c>
       <c r="C3" s="20">
-        <v>-0.16256383505399546</v>
+        <v>-1.9224434696129178</v>
       </c>
     </row>
     <row r="4">
@@ -2246,10 +2246,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="25">
-        <v>-0.88431937075391875</v>
+        <v>-2.1005791643768208</v>
       </c>
       <c r="C4" s="28">
-        <v>0.19192994024984561</v>
+        <v>-1.8775777800155538</v>
       </c>
     </row>
     <row r="5">
@@ -2257,10 +2257,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="33">
-        <v>-0.57781012849776747</v>
+        <v>-2.2303034310508951</v>
       </c>
       <c r="C5" s="36">
-        <v>0.68383718013151451</v>
+        <v>-1.9121306647320995</v>
       </c>
     </row>
     <row r="6">
@@ -2268,10 +2268,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="41">
-        <v>-0.44939021967052312</v>
+        <v>-2.3114680809384596</v>
       </c>
       <c r="C6" s="44">
-        <v>0.95257509753708114</v>
+        <v>-1.916388542554772</v>
       </c>
     </row>
     <row r="7">
@@ -2279,10 +2279,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="49">
-        <v>-0.16285363737929318</v>
+        <v>-2.1556543707971789</v>
       </c>
       <c r="C7" s="52">
-        <v>1.3277787102186258</v>
+        <v>-1.6877873227614766</v>
       </c>
     </row>
     <row r="8">
@@ -2295,10 +2295,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="59">
-        <v>0.2846209301570119</v>
+        <v>0.20147957314176371</v>
       </c>
       <c r="C9" s="62">
-        <v>0.34740587120049299</v>
+        <v>0.16404870315790221</v>
       </c>
     </row>
     <row r="10">
@@ -2339,10 +2339,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="91">
-        <v>0.70142046853467799</v>
+        <v>0.046394883432239062</v>
       </c>
       <c r="C13" s="94">
-        <v>1.4207252888800501e-11</v>
+        <v>0.093926923652357941</v>
       </c>
     </row>
     <row r="14">
@@ -2350,10 +2350,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="99">
-        <v>3.3597203479819413</v>
+        <v>0.85475969645446448</v>
       </c>
       <c r="C14" s="102">
-        <v>9.3438250886971588</v>
+        <v>0.98521409797073434</v>
       </c>
     </row>
     <row r="15">
@@ -2366,7 +2366,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="109">
-        <v>0.054882519016590893</v>
+        <v>-0.095021447472647583</v>
       </c>
     </row>
     <row r="17">
@@ -2374,7 +2374,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="114">
-        <v>-104997.92393937684</v>
+        <v>1.1464536799357905</v>
       </c>
     </row>
     <row r="18">
@@ -2382,7 +2382,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="119">
-        <v>1.0081152983749497</v>
+        <v>0.46918149865077119</v>
       </c>
     </row>
     <row r="19">
@@ -2390,7 +2390,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="124">
-        <v>-3.2919565042133057</v>
+        <v>-1.5150641726209138</v>
       </c>
     </row>
     <row r="20">
@@ -2398,7 +2398,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="129">
-        <v>0.78828014901973409</v>
+        <v>0.0099225211219549636</v>
       </c>
     </row>
     <row r="21">
@@ -2406,10 +2406,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="136">
-        <v>6917</v>
+        <v>8043</v>
       </c>
       <c r="C21" s="140">
-        <v>8436</v>
+        <v>9990</v>
       </c>
     </row>
   </sheetData>
